--- a/exports/releve_03.xlsx
+++ b/exports/releve_03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Banque</t>
   </si>
@@ -44,6 +44,81 @@
   </si>
   <si>
     <t>Sens</t>
+  </si>
+  <si>
+    <t>78/00</t>
+  </si>
+  <si>
+    <t>1DLGB2252990274 AHMAD MUSTAPHA DAFER 43 Great Sutton Street, London ECIV 208, HSBCGB2L0K United Kingdom Transactions Deseription Details Money out Money in Balance Date Continued</t>
+  </si>
+  <si>
+    <t>11 Jan 43</t>
+  </si>
+  <si>
+    <t>Balance B/F 18Jan13 Received fromIBMUK Credit 1,000,000,000.00 4,000,000,000.00 Jan. 2010 14Feb 13 Payment to NatWest Mage Debit 300,000,000.00 3,700,000,000.00 Pay Ref: 001587905 28Feb 13 Payment to UK provident Debit 200,000,000.00 3,500,000,000.00 Fund by Draft, O5Mar13 Direct Debit HSBCUK Debit 1,000,000,000.00 2,500,000,000.00</t>
+  </si>
+  <si>
+    <t>3,000,000,000.00</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>21 Mar 13</t>
+  </si>
+  <si>
+    <t>Received from Microsoft UK Credit _2,800,000,000.00 ‘Account 504X0649</t>
+  </si>
+  <si>
+    <t>300,000,000.00</t>
+  </si>
+  <si>
+    <t>29 Mar 13</t>
+  </si>
+  <si>
+    <t>. Transfer from Sort Code 20- Credit ' _3,300,000,000.00 10-53 08 May13 Payment to Exxon Mobil Debit 100,000,000.00 3,200,000,000.00 Unlimited</t>
+  </si>
+  <si>
+    <t>500,000,000.00</t>
+  </si>
+  <si>
+    <t>15 May 13</t>
+  </si>
+  <si>
+    <t>Received from British Credit _3,2 Petroleum</t>
+  </si>
+  <si>
+    <t>55,000,000.00</t>
+  </si>
+  <si>
+    <t>29 May 13</t>
+  </si>
+  <si>
+    <t>Payment to Board of Internal Debit 3,250,000,000.00 O2July 13 Direct Debit HSBC China Debit 10,000,000.00 3.240,000,000.00</t>
+  </si>
+  <si>
+    <t>5,000,000.00</t>
+  </si>
+  <si>
+    <t>Dr</t>
+  </si>
+  <si>
+    <t>20 Aug 13</t>
+  </si>
+  <si>
+    <t>Received from Shell BP Credit. 0 3.280,000,000.00 13Sept 13 Drawn on Cho No. 448960 Debit 280,000,00000 3,000,000,000.00 090ct 13 Transfer fromHSBC Dubai Credit 4100,000,000.00 _3,100,000,000.00</t>
+  </si>
+  <si>
+    <t>40,000,00</t>
+  </si>
+  <si>
+    <t>07 Feb 14</t>
+  </si>
+  <si>
+    <t>Closing Balance Sort Code 40-05-15 Statement page 1 Ultimate Holding Company: 8 Canada Square London El 4 SHQ United Kingdom</t>
+  </si>
+  <si>
+    <t>3,100,000,000.00</t>
   </si>
 </sst>
 </file>
@@ -375,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,6 +496,112 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exports/releve_03.xlsx
+++ b/exports/releve_03.xlsx
@@ -14,23 +14,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Banque</t>
   </si>
   <si>
-    <t>07 February 2014 International Bank Account Number</t>
+    <t>07" February 2014 International Bank Account Number</t>
   </si>
   <si>
     <t>Compte</t>
   </si>
   <si>
-    <t>00390275</t>
+    <t>00990275</t>
   </si>
   <si>
     <t>Titulaire</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>Période</t>
   </si>
   <si>
@@ -46,76 +49,43 @@
     <t>Sens</t>
   </si>
   <si>
-    <t>78/00</t>
-  </si>
-  <si>
-    <t>1DLGB2252990274 AHMAD MUSTAPHA DAFER 43 Great Sutton Street, London ECIV 208, HSBCGB2L0K United Kingdom Transactions Deseription Details Money out Money in Balance Date Continued</t>
-  </si>
-  <si>
-    <t>11 Jan 43</t>
-  </si>
-  <si>
-    <t>Balance B/F 18Jan13 Received fromIBMUK Credit 1,000,000,000.00 4,000,000,000.00 Jan. 2010 14Feb 13 Payment to NatWest Mage Debit 300,000,000.00 3,700,000,000.00 Pay Ref: 001587905 28Feb 13 Payment to UK provident Debit 200,000,000.00 3,500,000,000.00 Fund by Draft, O5Mar13 Direct Debit HSBCUK Debit 1,000,000,000.00 2,500,000,000.00</t>
-  </si>
-  <si>
-    <t>3,000,000,000.00</t>
+    <t>14 Fob 13</t>
+  </si>
+  <si>
+    <t>Payment i NatWest Mage Debit 3,700,000,000.00 Pay Ref 001887905 2B Feb 13° Payment to UK provident Debit 31500,000.000,00 Fund! by Oraft OS Mar 13 Direct Debit HSC UK Debit 1,000.000.00000 2:500,000,000.00</t>
+  </si>
+  <si>
+    <t>200,000,000.00</t>
+  </si>
+  <si>
+    <t>Dr</t>
+  </si>
+  <si>
+    <t>21 Mar 13</t>
+  </si>
+  <si>
+    <t>Received from Microsoft UK Credit 000000 2.800.000.0000 ‘Account 504%0649 29Mar 13 Transfer from Sort Code 20- Credit 500,000,000.00 3,300,000,000.00 10-53 08 Mayt3 Payment to Exon Mobil Debit 100.000.000.00 3,0.000.00 Unlimited 15May 13 Received from British Creat 55,000.00000 3,255,000,00000 Petroleum 29May 13 Payment to Board of Internal Debit 5,000,000.00 3,250,000,000.00 O2 uy 13 Direct Debit HSBC China Debit 10.000,000.00 3.240,000,000.00</t>
+  </si>
+  <si>
+    <t>200,00</t>
   </si>
   <si>
     <t>Cr</t>
   </si>
   <si>
-    <t>21 Mar 13</t>
-  </si>
-  <si>
-    <t>Received from Microsoft UK Credit _2,800,000,000.00 ‘Account 504X0649</t>
-  </si>
-  <si>
-    <t>300,000,000.00</t>
-  </si>
-  <si>
-    <t>29 Mar 13</t>
-  </si>
-  <si>
-    <t>. Transfer from Sort Code 20- Credit ' _3,300,000,000.00 10-53 08 May13 Payment to Exxon Mobil Debit 100,000,000.00 3,200,000,000.00 Unlimited</t>
-  </si>
-  <si>
-    <t>500,000,000.00</t>
-  </si>
-  <si>
-    <t>15 May 13</t>
-  </si>
-  <si>
-    <t>Received from British Credit _3,2 Petroleum</t>
-  </si>
-  <si>
-    <t>55,000,000.00</t>
-  </si>
-  <si>
-    <t>29 May 13</t>
-  </si>
-  <si>
-    <t>Payment to Board of Internal Debit 3,250,000,000.00 O2July 13 Direct Debit HSBC China Debit 10,000,000.00 3.240,000,000.00</t>
-  </si>
-  <si>
-    <t>5,000,000.00</t>
-  </si>
-  <si>
-    <t>Dr</t>
-  </si>
-  <si>
     <t>20 Aug 13</t>
   </si>
   <si>
-    <t>Received from Shell BP Credit. 0 3.280,000,000.00 13Sept 13 Drawn on Cho No. 448960 Debit 280,000,00000 3,000,000,000.00 090ct 13 Transfer fromHSBC Dubai Credit 4100,000,000.00 _3,100,000,000.00</t>
-  </si>
-  <si>
-    <t>40,000,00</t>
+    <t>Received from Shell OP Cre 3,280,000.000.00 413.Sept 13° Drawn on Cho No. 448960 Debit 280,000.000.00 3,000,000,000.00 09.0ct 13. Transfer from HSBC Dubai Credit 100,000,000.00 3,100,000.000.00</t>
+  </si>
+  <si>
+    <t>40.000.000.00</t>
   </si>
   <si>
     <t>07 Feb 14</t>
   </si>
   <si>
-    <t>Closing Balance Sort Code 40-05-15 Statement page 1 Ultimate Holding Company: 8 Canada Square London El 4 SHQ United Kingdom</t>
+    <t>Closing Balance</t>
   </si>
   <si>
     <t>3,100,000,000.00</t>
@@ -450,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -476,130 +446,80 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
         <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
